--- a/Dokumentacja/Matryca bledow.xlsx
+++ b/Dokumentacja/Matryca bledow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Matryca błędów</t>
   </si>
@@ -113,13 +113,19 @@
   </si>
   <si>
     <t>Podejmowaniu decyzji o tworzeniu nowych scenariuszy testowych</t>
+  </si>
+  <si>
+    <t>Autor: Jakub Olejniczak (jakubkuba997@gmail.com)</t>
+  </si>
+  <si>
+    <t>Wersja: 1.0 (26.06.2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +237,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -274,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -458,8 +472,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
@@ -467,40 +545,68 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,38 +618,33 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="20% — akcent 6" xfId="6" builtinId="50"/>
     <cellStyle name="40% — akcent 1" xfId="3" builtinId="31"/>
     <cellStyle name="40% — akcent 4" xfId="5" builtinId="43"/>
     <cellStyle name="60% — akcent 1" xfId="4" builtinId="32"/>
     <cellStyle name="Nagłówek 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Tekst objaśnienia" xfId="7" builtinId="53"/>
     <cellStyle name="Uwaga" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,7 +950,7 @@
   <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -860,434 +961,447 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
     <row r="4" spans="2:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="2">
         <v>2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="2">
         <v>1</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="2">
         <v>1</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="2">
         <v>1</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="17"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17" t="s">
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="C16:M16"/>
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="D18:M18"/>
@@ -1298,6 +1412,8 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C15:M15"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
